--- a/document/SBS3_DATAチェックシート.xlsx
+++ b/document/SBS3_DATAチェックシート.xlsx
@@ -10,15 +10,17 @@
     <sheet name="全体" sheetId="1" r:id="rId1"/>
     <sheet name="コールサイン" sheetId="2" r:id="rId2"/>
     <sheet name="Position" sheetId="4" r:id="rId3"/>
-    <sheet name="Velocity" sheetId="5" r:id="rId4"/>
-    <sheet name="HexToBin" sheetId="3" r:id="rId5"/>
+    <sheet name="Lat_Calc" sheetId="6" r:id="rId4"/>
+    <sheet name="Lon_Calc" sheetId="7" r:id="rId5"/>
+    <sheet name="Velocity" sheetId="5" r:id="rId6"/>
+    <sheet name="HexToBin" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>DLE</t>
     <phoneticPr fontId="2"/>
@@ -145,9 +147,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>00010000000000100000000100000000100111101100101111001110100011011000010100011011110111000101100001000111000100101101001111100110110100100011110100000000000000000000000000010000000000111010001100100001</t>
   </si>
   <si>
@@ -157,18 +156,6 @@
     <t>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111000101100111001010110110000100011110111100000000000000000000000000010000000000111111001110101111</t>
   </si>
   <si>
-    <t>5c</t>
-  </si>
-  <si>
-    <t>2f</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
     <t>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000101010011000000100101000001010000000100000000000000000000000000000010000000000111010111110101011</t>
   </si>
   <si>
@@ -225,6 +212,169 @@
   </si>
   <si>
     <t>Dif</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Even</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Odd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>E/O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>modeS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>parity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LAT_cpr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LON_cpr</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DLAT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>modx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mody</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lat</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行番号</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DLon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ni</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2π</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-cos(π/2NZ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cos(π*lat/180)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2乗</t>
+    <rPh sb="1" eb="2">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arccos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NL(lat)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LON</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>modm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>modni</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -348,12 +498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +529,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,19 +940,19 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,39 +1004,39 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>BIN2HEX(B6,2)</f>
+        <f t="shared" ref="B4:J4" si="1">BIN2HEX(B6,2)</f>
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>BIN2HEX(C6,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>BIN2HEX(D6,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="E4" t="str">
-        <f>BIN2HEX(E6,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>BIN2HEX(F6,2)</f>
+        <f t="shared" si="1"/>
         <v>AE</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>BIN2HEX(G6,2)</f>
+        <f t="shared" si="1"/>
         <v>F7</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>BIN2HEX(H6,2)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="I4" t="str">
-        <f>BIN2HEX(I6,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J4" t="str">
-        <f>BIN2HEX(J6,2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="M4" s="6" t="str">
@@ -914,63 +1064,63 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <f>BIN2DEC(B6)</f>
         <v>16</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" ref="C5:R5" si="1">BIN2DEC(C6)</f>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:R5" si="2">BIN2DEC(C6)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" si="1"/>
+      <c r="D5" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" si="1"/>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="G5" s="13">
-        <f t="shared" si="1"/>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="H5" s="13">
-        <f t="shared" si="1"/>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="1"/>
+      <c r="I5" s="12">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" si="1"/>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15">
-        <f t="shared" si="1"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13">
-        <f t="shared" si="1"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="14">
-        <f t="shared" si="1"/>
+      <c r="P5" s="12">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q5" s="13">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="11">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R5" s="14">
-        <f t="shared" si="1"/>
+      <c r="R5" s="12">
+        <f t="shared" si="2"/>
         <v>215</v>
       </c>
     </row>
@@ -983,43 +1133,43 @@
         <v>00010000</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:R10" si="2">MID($A6,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C6:R10" si="3">MID($A6,C$1,D$1-C$1)</f>
         <v>00000010</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10101110</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11110111</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01000110</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001100001110000010000</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000001000000000010011100000011100011101111100111101</v>
       </c>
       <c r="M6" s="6" t="str">
@@ -1027,7 +1177,7 @@
         <v>00010</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="N6" si="3">MID($A6,N$1,O$1-N$1)</f>
+        <f t="shared" ref="N6" si="4">MID($A6,N$1,O$1-N$1)</f>
         <v>111000000000000000000000</v>
       </c>
       <c r="O6" s="4" t="str">
@@ -1035,15 +1185,15 @@
         <v>00000000</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11010111</v>
       </c>
     </row>
@@ -1052,71 +1202,71 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" ref="B7:Q10" si="4">MID($A7,B$1,C$1-B$1)</f>
+        <f t="shared" ref="B7:Q10" si="5">MID($A7,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000010</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000001</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00100100</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11000111</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100001100001110000010000</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010000100110010001010100011001100111011010000010111000</v>
       </c>
       <c r="M7" s="6" t="str">
-        <f t="shared" ref="M7:M10" si="5">LEFT(L7,5)</f>
+        <f t="shared" ref="M7:M10" si="6">LEFT(L7,5)</f>
         <v>00010</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ref="N7" si="6">MID($A7,N$1,O$1-N$1)</f>
+        <f t="shared" ref="N7" si="7">MID($A7,N$1,O$1-N$1)</f>
         <v>000110110000000000000000</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000000</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010000</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00000011</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01110010</v>
       </c>
     </row>
@@ -1125,71 +1275,71 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010000</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11000111</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001000</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01111000</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>011110000000101101010111</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00100000000011010001001000111000110111110101110110100000</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00100</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ref="N8" si="7">MID($A8,N$1,O$1-N$1)</f>
+        <f t="shared" ref="N8" si="8">MID($A8,N$1,O$1-N$1)</f>
         <v>000000000000000000000000</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00110101</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11111011</v>
       </c>
     </row>
@@ -1198,71 +1348,71 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010000</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00101101</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11101000</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10110000</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001101101110111110000</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00100000000001001110000001110101110000111000100000100000</v>
       </c>
       <c r="M9" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00100</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ref="N9:N10" si="8">MID($A9,N$1,O$1-N$1)</f>
+        <f t="shared" ref="N9:N10" si="9">MID($A9,N$1,O$1-N$1)</f>
         <v>000000000000000000000000</v>
       </c>
       <c r="O9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01001010</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11000111</v>
       </c>
     </row>
@@ -1271,71 +1421,71 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010000</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10101110</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11110111</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01000110</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001100001110000010000</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000001000000000010011100000011100011101111100111101</v>
       </c>
       <c r="M10" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>00010</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>111000000000000000000000</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11010111</v>
       </c>
     </row>
@@ -1376,7 +1526,7 @@
     <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.875" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.25" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="4"/>
     <col min="18" max="18" width="9" style="4"/>
@@ -1430,7 +1580,7 @@
         <f>L1+56</f>
         <v>145</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="6">
@@ -1471,20 +1621,20 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1670,7 @@
       <c r="M3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="7" t="s">
@@ -1539,46 +1689,46 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>BIN2HEX(B6,2)</f>
+        <f t="shared" ref="B4:J4" si="1">BIN2HEX(B6,2)</f>
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>BIN2HEX(C6,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>BIN2HEX(D6,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="E4" t="str">
-        <f>BIN2HEX(E6,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>BIN2HEX(F6,2)</f>
+        <f t="shared" si="1"/>
         <v>F0</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>BIN2HEX(G6,2)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>BIN2HEX(H6,2)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="I4" t="str">
-        <f>BIN2HEX(I6,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J4" t="str">
-        <f>BIN2HEX(J6,2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
       <c r="M4" s="6" t="str">
         <f>BIN2HEX(M6,2)</f>
         <v>04</v>
       </c>
-      <c r="N4" s="17" t="str">
+      <c r="N4" s="15" t="str">
         <f>MID(N1,BIN2DEC(MID(N6,1,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,7,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,13,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,19,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,25,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,31,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,37,6))+1,1)&amp;MID(N1,BIN2DEC(MID(N6,43,6))+1,1)</f>
         <v>JAL2464_</v>
       </c>
@@ -1603,64 +1753,64 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <f>BIN2DEC(B6)</f>
         <v>16</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" ref="C5:S5" si="1">BIN2DEC(C6)</f>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:S5" si="2">BIN2DEC(C6)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" si="1"/>
+      <c r="D5" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" si="1"/>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G5" s="13">
-        <f t="shared" si="1"/>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="H5" s="13">
-        <f t="shared" si="1"/>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="1"/>
+      <c r="I5" s="12">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" si="1"/>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15">
-        <f t="shared" si="1"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="13">
-        <f t="shared" si="1"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="11">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q5" s="14">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="12">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="R5" s="13">
-        <f t="shared" si="1"/>
+      <c r="R5" s="11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="S5" s="14">
-        <f t="shared" si="1"/>
+      <c r="S5" s="12">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
     </row>
@@ -1673,50 +1823,50 @@
         <v>00010000</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:S10" si="2">MID($A6,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C6:S10" si="3">MID($A6,C$1,D$1-C$1)</f>
         <v>00000010</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11110000</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01100110</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01110000</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001010001101111011100</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00100000001010000001001100110010110100110110110100100000</v>
       </c>
       <c r="M6" s="6" t="str">
         <f>LEFT(L6,5)</f>
         <v>00100</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="15" t="str">
         <f>MID(A6,97,48)</f>
         <v>001010000001001100110010110100110110110100100000</v>
       </c>
@@ -1729,15 +1879,15 @@
         <v>00010000</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010100</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01001110</v>
       </c>
     </row>
@@ -1746,75 +1896,75 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" ref="B7:R10" si="3">MID($A7,B$1,C$1-B$1)</f>
+        <f t="shared" ref="B7:R10" si="4">MID($A7,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000010</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000001</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000100</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00100100</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11000111</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10001</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100001100001110000010000</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00010000100110010001010100011001100111011010000010111000</v>
       </c>
       <c r="M7" s="6" t="str">
-        <f t="shared" ref="M7:M11" si="4">LEFT(L7,5)</f>
+        <f t="shared" ref="M7:M11" si="5">LEFT(L7,5)</f>
         <v>00010</v>
       </c>
-      <c r="N7" s="17" t="str">
-        <f t="shared" ref="N7:N10" si="5">MID(A7,97,48)</f>
+      <c r="N7" s="15" t="str">
+        <f t="shared" ref="N7:N10" si="6">MID(A7,97,48)</f>
         <v>100110010001010100011001100111011010000010111000</v>
       </c>
       <c r="O7" s="6" t="str">
-        <f t="shared" ref="O6:O10" si="6">MID($A7,O$1,P$1-O$1)</f>
+        <f t="shared" ref="O7:O10" si="7">MID($A7,O$1,P$1-O$1)</f>
         <v>000110110000000000000000</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00010000</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000011</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01110010</v>
       </c>
     </row>
@@ -1823,75 +1973,75 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00010000</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11000111</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001000</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01111000</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>011110000000101101010111</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00100000000011010001001000111000110111110101110110100000</v>
       </c>
       <c r="M8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00100</v>
       </c>
-      <c r="N8" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="N8" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>000011010001001000111000110111110101110110100000</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>000000000000000000000000</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00110101</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11111011</v>
       </c>
     </row>
@@ -1900,75 +2050,75 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00010000</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00101101</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11101000</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10110000</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001101101110111110000</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00100000000001001110000001110101110000111000100000100000</v>
       </c>
       <c r="M9" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00100</v>
       </c>
-      <c r="N9" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="N9" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>000001001110000001110101110000111000100000100000</v>
       </c>
       <c r="O9" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>000000000000000000000000</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01001010</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11000111</v>
       </c>
     </row>
@@ -1977,85 +2127,85 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00010000</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000010</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10101110</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11110111</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01000110</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001100001110000010000</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000001000000000010011100000011100011101111100111101</v>
       </c>
       <c r="M10" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>00010</v>
       </c>
-      <c r="N10" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="N10" s="15" t="str">
+        <f t="shared" si="6"/>
         <v>001000000000010011100000011100011101111100111101</v>
       </c>
       <c r="O10" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111000000000000000000000</v>
       </c>
       <c r="P10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00010000</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000011</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11010111</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="M11" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N11" s="17" t="str">
-        <f t="shared" ref="N6:N11" si="7">MID(L11,6,48)</f>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f t="shared" ref="N11" si="8">MID(L11,6,48)</f>
         <v/>
       </c>
       <c r="O11" s="6">
@@ -2077,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2093,13 +2243,13 @@
     <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="20" customWidth="1"/>
-    <col min="14" max="14" width="3.75" style="20" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="20" customWidth="1"/>
-    <col min="16" max="16" width="5.125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="20" customWidth="1"/>
-    <col min="18" max="18" width="3.375" style="20" customWidth="1"/>
-    <col min="19" max="20" width="9.5" style="20" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="18" customWidth="1"/>
+    <col min="14" max="14" width="3.75" style="18" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="18" customWidth="1"/>
+    <col min="18" max="18" width="5" style="18" customWidth="1"/>
+    <col min="19" max="20" width="9.5" style="18" customWidth="1"/>
     <col min="21" max="21" width="27.25" style="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="4"/>
     <col min="24" max="24" width="9" style="4"/>
@@ -2149,35 +2299,35 @@
         <f>K1+24</f>
         <v>89</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="18">
         <f>L1+56</f>
         <v>145</v>
       </c>
-      <c r="N1" s="20">
+      <c r="N1" s="18">
         <f>L1+5</f>
         <v>94</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="18">
         <f>N1+2</f>
         <v>96</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="18">
         <f>O1+1</f>
         <v>97</v>
       </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="18">
         <f>P1+12</f>
         <v>109</v>
       </c>
-      <c r="R1" s="20">
+      <c r="R1" s="18">
         <f>Q1+1</f>
         <v>110</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="18">
         <f>R1+1</f>
         <v>111</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="18">
         <f>S1+17</f>
         <v>128</v>
       </c>
@@ -2218,26 +2368,26 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
       <c r="V2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2270,28 +2420,28 @@
       <c r="L3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="U3" s="7" t="s">
@@ -2310,51 +2460,51 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>BIN2HEX(B6,2)</f>
+        <f t="shared" ref="B4:J4" si="1">BIN2HEX(B6,2)</f>
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>BIN2HEX(C6,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>BIN2HEX(D6,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="E4" t="str">
-        <f>BIN2HEX(E6,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>BIN2HEX(F6,2)</f>
+        <f t="shared" si="1"/>
         <v>9E</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>BIN2HEX(G6,2)</f>
+        <f t="shared" si="1"/>
         <v>CB</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>BIN2HEX(H6,2)</f>
+        <f t="shared" si="1"/>
         <v>CE</v>
       </c>
       <c r="I4" t="str">
-        <f>BIN2HEX(I6,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J4" t="str">
-        <f>BIN2HEX(J6,2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
-      <c r="M4" s="20" t="str">
+      <c r="M4" s="18" t="str">
         <f>BIN2HEX(M6,2)</f>
         <v>0B</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="21">
         <f>(BIN2DEC(RIGHT(S6,9))+BIN2DEC(LEFT(S6,8))*512)/131072</f>
         <v>0.70693206787109375</v>
       </c>
-      <c r="T4" s="23">
-        <f t="shared" ref="S4:T5" si="1">(BIN2DEC(RIGHT(T6,9))+BIN2DEC(LEFT(T6,8))*512)/131072</f>
+      <c r="T4" s="21">
+        <f t="shared" ref="S4:T5" si="2">(BIN2DEC(RIGHT(T6,9))+BIN2DEC(LEFT(T6,8))*512)/131072</f>
         <v>0.41062164306640625</v>
       </c>
       <c r="V4" s="4" t="str">
@@ -2378,157 +2528,157 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <f>BIN2DEC(B6)</f>
         <v>16</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" ref="C5:Y5" si="2">BIN2DEC(C6)</f>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:Y5" si="3">BIN2DEC(C6)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="20">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
+        <v>0.61202239990234375</v>
+      </c>
+      <c r="T5" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="I5" s="14">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="J5" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="22">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23">
-        <f t="shared" si="1"/>
-        <v>0.61202239990234375</v>
-      </c>
-      <c r="T5" s="23">
-        <f t="shared" si="1"/>
         <v>3.502655029296875E-2</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="13">
-        <f t="shared" si="2"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="11">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="W5" s="14">
-        <f t="shared" si="2"/>
+      <c r="W5" s="12">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="X5" s="13">
-        <f t="shared" si="2"/>
+      <c r="X5" s="11">
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="Y5" s="14">
-        <f t="shared" si="2"/>
+      <c r="Y5" s="12">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>MID($A6,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:X7" si="3">MID($A6,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C6:X7" si="4">MID($A6,C$1,D$1-C$1)</f>
         <v>00000010</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000000</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10011110</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11001011</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11001110</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f>MID($A6,I$1,J$1-I$1)</f>
         <v>10001</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="3"/>
+        <f>MID($A6,K$1,L$1-K$1)</f>
         <v>100001010001101111011100</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="3"/>
+        <f>MID($A6,L$1,M$1-L$1)</f>
         <v>01011000010001110001001011010011111001101101001000111101</v>
       </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" s="18" t="str">
         <f>LEFT(L6,5)</f>
         <v>01011</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="18" t="str">
         <f>MID($A6,N$1,O$1-N$1)</f>
         <v>00</v>
       </c>
-      <c r="O6" s="20" t="str">
-        <f t="shared" ref="O6:T7" si="4">MID($A6,O$1,P$1-O$1)</f>
+      <c r="O6" s="18" t="str">
+        <f t="shared" ref="O6:T7" si="5">MID($A6,O$1,P$1-O$1)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="P6" s="18" t="str">
+        <f t="shared" si="5"/>
         <v>010001110001</v>
       </c>
-      <c r="Q6" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="18" t="str">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R6" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="R6" s="18" t="str">
+        <f>MID($A6,R$1,S$1-R$1)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="S6" s="18" t="str">
+        <f t="shared" si="5"/>
         <v>10110100111110011</v>
       </c>
-      <c r="T6" s="20" t="str">
-        <f t="shared" si="4"/>
+      <c r="T6" s="18" t="str">
+        <f t="shared" si="5"/>
         <v>01101001000111101</v>
       </c>
       <c r="U6" s="6" t="str">
@@ -2540,197 +2690,197 @@
         <v>00010000</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>00000011</v>
       </c>
       <c r="X6" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10100011</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" ref="C6:Y10" si="5">MID($A6,Y$1,Z$1-Y$1)</f>
+        <f t="shared" ref="Y6:Y7" si="6">MID($A6,Y$1,Z$1-Y$1)</f>
         <v>00100001</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" ref="B7:W10" si="6">MID($A7,B$1,C$1-B$1)</f>
+        <f t="shared" ref="B7:W8" si="7">MID($A7,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000010</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000001</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000000</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000001</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>01100100</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11111011</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10001</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100001010001101111011100</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>01011000010001110001011001110010101101100001000111101111</v>
       </c>
-      <c r="M7" s="20" t="str">
-        <f t="shared" ref="M7:M11" si="7">LEFT(L7,5)</f>
+      <c r="M7" s="18" t="str">
+        <f t="shared" ref="M7" si="8">LEFT(L7,5)</f>
         <v>01011</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="18" t="str">
         <f>MID($A7,N$1,O$1-N$1)</f>
         <v>00</v>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>010001110001</v>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>10011100101011011</v>
+      </c>
+      <c r="T7" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>00001000111101111</v>
+      </c>
+      <c r="U7" s="6" t="str">
+        <f t="shared" ref="U7" si="9">MID($A7,U$1,V$1-U$1)</f>
+        <v>000000000000000000000000</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>00010000</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="7"/>
+        <v>00000011</v>
+      </c>
+      <c r="X7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>010001110001</v>
-      </c>
-      <c r="Q7" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>10011100101011011</v>
-      </c>
-      <c r="T7" s="20" t="str">
-        <f t="shared" si="4"/>
-        <v>00001000111101111</v>
-      </c>
-      <c r="U7" s="6" t="str">
-        <f t="shared" ref="U7:U10" si="8">MID($A7,U$1,V$1-U$1)</f>
-        <v>000000000000000000000000</v>
-      </c>
-      <c r="V7" s="4" t="str">
+        <v>11110011</v>
+      </c>
+      <c r="Y7" t="str">
         <f t="shared" si="6"/>
-        <v>00010000</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="6"/>
-        <v>00000011</v>
-      </c>
-      <c r="X7" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>11110011</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="5"/>
         <v>10101111</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>MID($A8,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000010</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000001</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000000</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10011110</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11001011</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11001110</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10001</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100001010001101111011100</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>01011000010001110001001011010011111001101101001000111101</v>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" s="18" t="str">
         <f>LEFT(L8,5)</f>
         <v>01011</v>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="18" t="str">
         <f>MID($A8,N$1,O$1-N$1)</f>
         <v>00</v>
       </c>
-      <c r="O8" s="20" t="str">
-        <f t="shared" ref="O8:T8" si="9">MID($A8,O$1,P$1-O$1)</f>
+      <c r="O8" s="18" t="str">
+        <f t="shared" ref="O8:T8" si="10">MID($A8,O$1,P$1-O$1)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="P8" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>010001110001</v>
       </c>
-      <c r="Q8" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="Q8" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R8" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="R8" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S8" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="S8" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>10110100111110011</v>
       </c>
-      <c r="T8" s="20" t="str">
-        <f t="shared" si="9"/>
+      <c r="T8" s="18" t="str">
+        <f t="shared" si="10"/>
         <v>01101001000111101</v>
       </c>
       <c r="U8" s="6" t="str">
@@ -2742,116 +2892,116 @@
         <v>00010000</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>00000011</v>
       </c>
       <c r="X8" s="4" t="str">
-        <f t="shared" ref="X8:X9" si="10">MID($A8,X$1,Y$1-X$1)</f>
+        <f t="shared" ref="X8:X9" si="11">MID($A8,X$1,Y$1-X$1)</f>
         <v>10100011</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ref="Y8:Y9" si="11">MID($A8,Y$1,Z$1-Y$1)</f>
+        <f t="shared" ref="Y8:Y9" si="12">MID($A8,Y$1,Z$1-Y$1)</f>
         <v>00100001</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" ref="B9" si="12">MID($A9,B$1,C$1-B$1)</f>
+        <f t="shared" ref="B9" si="13">MID($A9,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9" si="13">MID($A9,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C9" si="14">MID($A9,C$1,D$1-C$1)</f>
         <v>00000010</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f t="shared" ref="D9" si="14">MID($A9,D$1,E$1-D$1)</f>
+        <f t="shared" ref="D9" si="15">MID($A9,D$1,E$1-D$1)</f>
         <v>00000001</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9" si="15">MID($A9,E$1,F$1-E$1)</f>
+        <f t="shared" ref="E9" si="16">MID($A9,E$1,F$1-E$1)</f>
         <v>00000000</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f t="shared" ref="F9" si="16">MID($A9,F$1,G$1-F$1)</f>
+        <f t="shared" ref="F9" si="17">MID($A9,F$1,G$1-F$1)</f>
         <v>00000001</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" ref="G9" si="17">MID($A9,G$1,H$1-G$1)</f>
+        <f t="shared" ref="G9" si="18">MID($A9,G$1,H$1-G$1)</f>
         <v>01100100</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" ref="H9" si="18">MID($A9,H$1,I$1-H$1)</f>
+        <f t="shared" ref="H9" si="19">MID($A9,H$1,I$1-H$1)</f>
         <v>11111011</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ref="I9" si="19">MID($A9,I$1,J$1-I$1)</f>
+        <f t="shared" ref="I9" si="20">MID($A9,I$1,J$1-I$1)</f>
         <v>10001</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9" si="20">MID($A9,J$1,K$1-J$1)</f>
+        <f t="shared" ref="J9" si="21">MID($A9,J$1,K$1-J$1)</f>
         <v>101</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9" si="21">MID($A9,K$1,L$1-K$1)</f>
+        <f t="shared" ref="K9" si="22">MID($A9,K$1,L$1-K$1)</f>
         <v>100001010001101111011100</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9" si="22">MID($A9,L$1,M$1-L$1)</f>
+        <f t="shared" ref="L9" si="23">MID($A9,L$1,M$1-L$1)</f>
         <v>01011000010001110001011001110010101101100001000111101111</v>
       </c>
-      <c r="M9" s="20" t="str">
-        <f t="shared" ref="M9" si="23">LEFT(L9,5)</f>
+      <c r="M9" s="18" t="str">
+        <f t="shared" ref="M9" si="24">LEFT(L9,5)</f>
         <v>01011</v>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="18" t="str">
         <f>MID($A9,N$1,O$1-N$1)</f>
         <v>00</v>
       </c>
-      <c r="O9" s="20" t="str">
-        <f t="shared" ref="O9:T9" si="24">MID($A9,O$1,P$1-O$1)</f>
+      <c r="O9" s="18" t="str">
+        <f t="shared" ref="O9:T9" si="25">MID($A9,O$1,P$1-O$1)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="P9" s="18" t="str">
+        <f t="shared" si="25"/>
         <v>010001110001</v>
       </c>
-      <c r="Q9" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="Q9" s="18" t="str">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R9" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="R9" s="18" t="str">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="S9" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="S9" s="18" t="str">
+        <f t="shared" si="25"/>
         <v>10011100101011011</v>
       </c>
-      <c r="T9" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="T9" s="18" t="str">
+        <f t="shared" si="25"/>
         <v>00001000111101111</v>
       </c>
       <c r="U9" s="6" t="str">
-        <f t="shared" ref="U9" si="25">MID($A9,U$1,V$1-U$1)</f>
+        <f t="shared" ref="U9" si="26">MID($A9,U$1,V$1-U$1)</f>
         <v>000000000000000000000000</v>
       </c>
       <c r="V9" s="4" t="str">
-        <f t="shared" ref="V9" si="26">MID($A9,V$1,W$1-V$1)</f>
+        <f t="shared" ref="V9" si="27">MID($A9,V$1,W$1-V$1)</f>
         <v>00010000</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" ref="W9" si="27">MID($A9,W$1,X$1-W$1)</f>
+        <f t="shared" ref="W9" si="28">MID($A9,W$1,X$1-W$1)</f>
         <v>00000011</v>
       </c>
       <c r="X9" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11110011</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10101111</v>
       </c>
     </row>
@@ -2868,10 +3018,696 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="D1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(COUNTIF(E3:J3,"NG")=0,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(MID(C3,57,5)="10001","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(MID(C3,65,24)=MID(C4,65,24),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(MID(C3,110,1)="0","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(((BIN2DEC(MID(C3,89,5))&gt;8)*AND(BIN2DEC(MID(C3,89,5))&lt;19)),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(MID(C3,145,24)="000000000000000000000000","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="K3">
+        <f>(BIN2DEC("0"&amp;MID($C3,111,9))*256+BIN2DEC("0"&amp;MID($C3,120,8)))/131072</f>
+        <v>0.70693206787109375</v>
+      </c>
+      <c r="L3">
+        <f>INT(59*K3-60*K4+0.5)</f>
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>360/60</f>
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <f>L3</f>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3*INT(N3/O3)</f>
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <f>M3*(P3+K3)</f>
+        <v>34.241592407226562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(COUNTIF(E4:J4,"NG")=0,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(MID(C4,57,5)="10001","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="F4" t="str">
+        <f>F3</f>
+        <v>OK</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(MID(C4,110,1)="1","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(((BIN2DEC(MID(C4,89,5))&gt;8)*AND(BIN2DEC(MID(C4,89,5))&lt;19)),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(MID(C4,145,24)="000000000000000000000000","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="K4">
+        <f>(BIN2DEC("0"&amp;MID($C4,111,9))*256+BIN2DEC("0"&amp;MID($C4,120,8)))/131072</f>
+        <v>0.61202239990234375</v>
+      </c>
+      <c r="L4">
+        <f>L3</f>
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f>360/59</f>
+        <v>6.101694915254237</v>
+      </c>
+      <c r="N4">
+        <f>L4</f>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4*INT(N4/O4)</f>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f>M4*(P4+K4)</f>
+        <v>34.242848541777008</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="D1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="R1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(COUNTIF(E3:J3,"NG")=0,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(MID(C3,57,5)="10001","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(MID(C3,65,24)=MID(C4,65,24),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(MID(C3,110,1)="0","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(((BIN2DEC(MID(C3,89,5))&gt;8)*AND(BIN2DEC(MID(C3,89,5))&lt;19)),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(MID(C3,145,24)="000000000000000000000000","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="K3">
+        <f>(BIN2DEC("0"&amp;MID($C3,111,9))*256+BIN2DEC("0"&amp;MID($C3,120,8)))/131072</f>
+        <v>0.70693206787109375</v>
+      </c>
+      <c r="L3">
+        <f>INT(59*K3-60*K4+0.5)</f>
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f>360/60</f>
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <f>L3</f>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>60</v>
+      </c>
+      <c r="P3">
+        <f>N3-O3*INT(N3/O3)</f>
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <f>M3*(P3+K3)</f>
+        <v>34.241592407226562</v>
+      </c>
+      <c r="R3">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="S3">
+        <f>1-COS(PI()/30)</f>
+        <v>5.4781046317267101E-3</v>
+      </c>
+      <c r="T3">
+        <f>COS(PI()*Q3/180)</f>
+        <v>0.8266723263217256</v>
+      </c>
+      <c r="U3">
+        <f>POWER(T3,2)</f>
+        <v>0.68338713510617355</v>
+      </c>
+      <c r="V3">
+        <f>S3/U3</f>
+        <v>8.0161073428395915E-3</v>
+      </c>
+      <c r="W3">
+        <f>1-V3</f>
+        <v>0.99198389265716036</v>
+      </c>
+      <c r="X3">
+        <f>ACOS(W3)</f>
+        <v>0.12670311723157424</v>
+      </c>
+      <c r="Y3">
+        <f>R3/X3</f>
+        <v>49.589824184797763</v>
+      </c>
+      <c r="Z3">
+        <f>INT(Y3)</f>
+        <v>49</v>
+      </c>
+      <c r="AA3">
+        <f>(BIN2DEC("0"&amp;MID($C3,128,9))*256+BIN2DEC("0"&amp;MID($C3,137,8)))/131072</f>
+        <v>0.41062164306640625</v>
+      </c>
+      <c r="AB3">
+        <f>INT(AA3*(Z3-1)-AA4*Z3+0.5)</f>
+        <v>18</v>
+      </c>
+      <c r="AC3">
+        <f>MAX(Z3,1)</f>
+        <v>49</v>
+      </c>
+      <c r="AD3">
+        <f>360/AC3</f>
+        <v>7.3469387755102042</v>
+      </c>
+      <c r="AE3">
+        <f>AB3</f>
+        <v>18</v>
+      </c>
+      <c r="AF3">
+        <f>AC3</f>
+        <v>49</v>
+      </c>
+      <c r="AG3">
+        <f>AE3-AF3*INT(AE3/AF3)</f>
+        <v>18</v>
+      </c>
+      <c r="AH3">
+        <f>AD3*(AG3+AA3)</f>
+        <v>135.26171003069197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(COUNTIF(E4:J4,"NG")=0,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(MID(C4,57,5)="10001","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="F4" t="str">
+        <f>F3</f>
+        <v>OK</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(MID(C4,110,1)="1","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(((BIN2DEC(MID(C4,89,5))&gt;8)*AND(BIN2DEC(MID(C4,89,5))&lt;19)),"OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(MID(C4,145,24)="000000000000000000000000","OK","NG")</f>
+        <v>OK</v>
+      </c>
+      <c r="K4">
+        <f>(BIN2DEC("0"&amp;MID($C4,111,9))*256+BIN2DEC("0"&amp;MID($C4,120,8)))/131072</f>
+        <v>0.61202239990234375</v>
+      </c>
+      <c r="L4">
+        <f>L3</f>
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f>360/59</f>
+        <v>6.101694915254237</v>
+      </c>
+      <c r="N4">
+        <f>L4</f>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <f>N4-O4*INT(N4/O4)</f>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f>M4*(P4+K4)</f>
+        <v>34.242848541777008</v>
+      </c>
+      <c r="R4">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="S4">
+        <f>S3</f>
+        <v>5.4781046317267101E-3</v>
+      </c>
+      <c r="T4">
+        <f>COS(PI()*Q4/180)</f>
+        <v>0.82665999002515034</v>
+      </c>
+      <c r="U4">
+        <f>POWER(T4,2)</f>
+        <v>0.68336673910838164</v>
+      </c>
+      <c r="V4">
+        <f>S4/U4</f>
+        <v>8.0163465943253725E-3</v>
+      </c>
+      <c r="W4">
+        <f>1-V4</f>
+        <v>0.99198365340567463</v>
+      </c>
+      <c r="X4">
+        <f>ACOS(W4)</f>
+        <v>0.12670501056343286</v>
+      </c>
+      <c r="Y4">
+        <f>R4/X4</f>
+        <v>49.589083172318659</v>
+      </c>
+      <c r="Z4">
+        <f>INT(Y4)</f>
+        <v>49</v>
+      </c>
+      <c r="AA4">
+        <f>(BIN2DEC("0"&amp;MID($C4,128,9))*256+BIN2DEC("0"&amp;MID($C4,137,8)))/131072</f>
+        <v>3.502655029296875E-2</v>
+      </c>
+      <c r="AB4">
+        <f>INT(AA3*(Z4-1)-AA4*Z4+0.5)</f>
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <f>MAX(Z4-1,1)</f>
+        <v>48</v>
+      </c>
+      <c r="AD4">
+        <f>360/AC4</f>
+        <v>7.5</v>
+      </c>
+      <c r="AE4">
+        <f>AB4</f>
+        <v>18</v>
+      </c>
+      <c r="AF4">
+        <f>AC4</f>
+        <v>48</v>
+      </c>
+      <c r="AG4">
+        <f>AE4-AF4*INT(AE4/AF4)</f>
+        <v>18</v>
+      </c>
+      <c r="AH4">
+        <f>AD4*(AG4+AA4)</f>
+        <v>135.26269912719727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="Q7">
+        <v>33.539943000000001</v>
+      </c>
+      <c r="R7">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="S7">
+        <f>1-COS(PI()/30)</f>
+        <v>5.4781046317267101E-3</v>
+      </c>
+      <c r="T7">
+        <f>COS(PI()*Q7/180)</f>
+        <v>0.83350084384558676</v>
+      </c>
+      <c r="U7">
+        <f>POWER(T7,2)</f>
+        <v>0.6947236566913052</v>
+      </c>
+      <c r="V7">
+        <f>S7/U7</f>
+        <v>7.8853002614259066E-3</v>
+      </c>
+      <c r="W7">
+        <f>1-V7</f>
+        <v>0.99211469973857414</v>
+      </c>
+      <c r="X7">
+        <f>ACOS(W7)</f>
+        <v>0.12566371871730064</v>
+      </c>
+      <c r="Y7">
+        <f>R7/X7</f>
+        <v>49.999994997080684</v>
+      </c>
+      <c r="Z7">
+        <f>INT(Y7)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="Q8">
+        <v>35.228994999999998</v>
+      </c>
+      <c r="R8">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="S8">
+        <f>S7</f>
+        <v>5.4781046317267101E-3</v>
+      </c>
+      <c r="T8">
+        <f>COS(PI()*Q8/180)</f>
+        <v>0.81685308540433299</v>
+      </c>
+      <c r="U8">
+        <f>POWER(T8,2)</f>
+        <v>0.66724896313457849</v>
+      </c>
+      <c r="V8">
+        <f>S8/U8</f>
+        <v>8.2099859788344436E-3</v>
+      </c>
+      <c r="W8">
+        <f>1-V8</f>
+        <v>0.99179001402116551</v>
+      </c>
+      <c r="X8">
+        <f>ACOS(W8)</f>
+        <v>0.12822827002736292</v>
+      </c>
+      <c r="Y8">
+        <f>R8/X8</f>
+        <v>49.000000591435906</v>
+      </c>
+      <c r="Z8">
+        <f>INT(Y8)</f>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2886,21 +3722,21 @@
     <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="62.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" style="18" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="27.25" style="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="4"/>
     <col min="31" max="31" width="9" style="4"/>
@@ -2950,63 +3786,63 @@
         <f>K1+24</f>
         <v>89</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="18">
         <f>L1+56</f>
         <v>145</v>
       </c>
-      <c r="N1" s="20">
+      <c r="N1" s="18">
         <f>L1+5</f>
         <v>94</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="18">
         <f>N1+3</f>
         <v>97</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="18">
         <f>O1+1</f>
         <v>98</v>
       </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="18">
         <f>P1+1</f>
         <v>99</v>
       </c>
-      <c r="R1" s="20">
+      <c r="R1" s="18">
         <f>Q1+3</f>
         <v>102</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="18">
         <f>R1+1</f>
         <v>103</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="18">
         <f>S1+10</f>
         <v>113</v>
       </c>
-      <c r="U1" s="20">
+      <c r="U1" s="18">
         <f>T1+1</f>
         <v>114</v>
       </c>
-      <c r="V1" s="20">
+      <c r="V1" s="18">
         <f>U1+10</f>
         <v>124</v>
       </c>
-      <c r="W1" s="20">
+      <c r="W1" s="18">
         <f>V1+1</f>
         <v>125</v>
       </c>
-      <c r="X1" s="20">
+      <c r="X1" s="18">
         <f>W1+1</f>
         <v>126</v>
       </c>
-      <c r="Y1" s="20">
+      <c r="Y1" s="18">
         <f>X1+9</f>
         <v>135</v>
       </c>
-      <c r="Z1" s="20">
+      <c r="Z1" s="18">
         <f>Y1+2</f>
         <v>137</v>
       </c>
-      <c r="AA1" s="20">
+      <c r="AA1" s="18">
         <f>Z1+1</f>
         <v>138</v>
       </c>
@@ -3047,33 +3883,33 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
       <c r="AC2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3106,50 +3942,50 @@
       <c r="L3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="T3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="U3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="V3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="W3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="X3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="Y3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="Z3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AA3" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="AB3" s="7" t="s">
         <v>14</v>
@@ -3167,42 +4003,42 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>BIN2HEX(B6,2)</f>
+        <f t="shared" ref="B4:J4" si="1">BIN2HEX(B6,2)</f>
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>BIN2HEX(C6,2)</f>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>BIN2HEX(D6,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="E4" t="str">
-        <f>BIN2HEX(E6,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>BIN2HEX(F6,2)</f>
+        <f t="shared" si="1"/>
         <v>5C</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f>BIN2HEX(G6,2)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="H4" s="4" t="str">
-        <f>BIN2HEX(H6,2)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="I4" t="str">
-        <f>BIN2HEX(I6,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J4" t="str">
-        <f>BIN2HEX(J6,2)</f>
+        <f t="shared" si="1"/>
         <v>05</v>
       </c>
-      <c r="M4" s="20" t="str">
+      <c r="M4" s="18" t="str">
         <f>BIN2HEX(M6,2)</f>
         <v>13</v>
       </c>
@@ -3227,186 +4063,186 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <f>BIN2DEC(B6)</f>
         <v>16</v>
       </c>
-      <c r="C5" s="14">
-        <f t="shared" ref="C5:AF5" si="1">BIN2DEC(C6)</f>
+      <c r="C5" s="12">
+        <f t="shared" ref="C5:AF5" si="2">BIN2DEC(C6)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="13">
-        <f t="shared" si="1"/>
+      <c r="D5" s="11">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" si="1"/>
+      <c r="E5" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
+      <c r="F5" s="11">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G5" s="13">
-        <f t="shared" si="1"/>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="H5" s="13">
-        <f t="shared" si="1"/>
+      <c r="H5" s="11">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="I5" s="14">
-        <f t="shared" si="1"/>
+      <c r="I5" s="12">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" si="1"/>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="22">
-        <f t="shared" si="1"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="20">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="13">
-        <f t="shared" si="1"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="11">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="AD5" s="14">
-        <f t="shared" si="1"/>
+      <c r="AD5" s="12">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE5" s="13">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="11">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="AF5" s="14">
-        <f t="shared" si="1"/>
+      <c r="AF5" s="12">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>MID($A6,B$1,C$1-B$1)</f>
         <v>00010000</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6:L7" si="2">MID($A6,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C6:L6" si="3">MID($A6,C$1,D$1-C$1)</f>
         <v>00000010</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>00000000</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01011100</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01010011</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>01100101</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10001</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100001101101001000101111</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10011001010000001010100110000001001010000010100000001000</v>
       </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" s="18" t="str">
         <f>LEFT(L6,5)</f>
         <v>10011</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="18" t="str">
         <f>MID($A6,N$1,O$1-N$1)</f>
         <v>001</v>
       </c>
-      <c r="O6" s="20" t="str">
-        <f t="shared" ref="O6:AA6" si="3">MID($A6,O$1,P$1-O$1)</f>
+      <c r="O6" s="18" t="str">
+        <f t="shared" ref="O6:AA6" si="4">MID($A6,O$1,P$1-O$1)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="P6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="Q6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>000</v>
       </c>
-      <c r="R6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="R6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="S6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0010101001</v>
       </c>
-      <c r="T6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="T6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="U6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0000001001</v>
       </c>
-      <c r="V6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="V6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="X6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>000001010</v>
       </c>
-      <c r="Y6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="Y6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
-      <c r="Z6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="20" t="str">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="18" t="str">
+        <f t="shared" si="4"/>
         <v>0001000</v>
       </c>
       <c r="AB6" s="6" t="str">
@@ -3418,645 +4254,645 @@
         <v>00010000</v>
       </c>
       <c r="AD6" t="str">
-        <f t="shared" ref="AD6:AF7" si="4">MID($A6,AD$1,AE$1-AD$1)</f>
+        <f t="shared" ref="AD6:AF6" si="5">MID($A6,AD$1,AE$1-AD$1)</f>
         <v>00000011</v>
       </c>
       <c r="AE6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101111</v>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101011</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="B7" s="4" t="str">
-        <f t="shared" ref="B7:B11" si="5">MID($A7,B$1,C$1-B$1)</f>
+        <f t="shared" ref="B7:B11" si="6">MID($A7,B$1,C$1-B$1)</f>
         <v/>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7:C11" si="6">MID($A7,C$1,D$1-C$1)</f>
+        <f t="shared" ref="C7:C11" si="7">MID($A7,C$1,D$1-C$1)</f>
         <v/>
       </c>
       <c r="D7" s="4" t="str">
-        <f t="shared" ref="D7:D11" si="7">MID($A7,D$1,E$1-D$1)</f>
+        <f t="shared" ref="D7:D11" si="8">MID($A7,D$1,E$1-D$1)</f>
         <v/>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E11" si="8">MID($A7,E$1,F$1-E$1)</f>
+        <f t="shared" ref="E7:E11" si="9">MID($A7,E$1,F$1-E$1)</f>
         <v/>
       </c>
       <c r="F7" s="4" t="str">
-        <f t="shared" ref="F7:F11" si="9">MID($A7,F$1,G$1-F$1)</f>
+        <f t="shared" ref="F7:F11" si="10">MID($A7,F$1,G$1-F$1)</f>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" ref="G7:G11" si="10">MID($A7,G$1,H$1-G$1)</f>
+        <f t="shared" ref="G7:G11" si="11">MID($A7,G$1,H$1-G$1)</f>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" ref="H7:H11" si="11">MID($A7,H$1,I$1-H$1)</f>
+        <f t="shared" ref="H7:H11" si="12">MID($A7,H$1,I$1-H$1)</f>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ref="I7:I11" si="12">MID($A7,I$1,J$1-I$1)</f>
+        <f t="shared" ref="I7:I11" si="13">MID($A7,I$1,J$1-I$1)</f>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J11" si="13">MID($A7,J$1,K$1-J$1)</f>
+        <f t="shared" ref="J7:J11" si="14">MID($A7,J$1,K$1-J$1)</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7:K11" si="14">MID($A7,K$1,L$1-K$1)</f>
+        <f t="shared" ref="K7:K11" si="15">MID($A7,K$1,L$1-K$1)</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ref="L7:L11" si="15">MID($A7,L$1,M$1-L$1)</f>
-        <v/>
-      </c>
-      <c r="M7" s="20" t="str">
-        <f t="shared" ref="M7:M11" si="16">LEFT(L7,5)</f>
-        <v/>
-      </c>
-      <c r="N7" s="20" t="str">
-        <f t="shared" ref="N7:AC7" si="17">MID($A7,N$1,O$1-N$1)</f>
-        <v/>
-      </c>
-      <c r="O7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="R7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="T7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="U7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="V7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="W7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="X7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Y7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Z7" s="20" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AA7" s="20" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="L7:L11" si="16">MID($A7,L$1,M$1-L$1)</f>
+        <v/>
+      </c>
+      <c r="M7" s="18" t="str">
+        <f t="shared" ref="M7:M11" si="17">LEFT(L7,5)</f>
+        <v/>
+      </c>
+      <c r="N7" s="18" t="str">
+        <f t="shared" ref="N7:AC7" si="18">MID($A7,N$1,O$1-N$1)</f>
+        <v/>
+      </c>
+      <c r="O7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="R7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="S7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="U7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="X7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Y7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Z7" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AA7" s="18" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB7" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC7" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD7" t="str">
-        <f t="shared" ref="AD7:AD11" si="18">MID($A7,AD$1,AE$1-AD$1)</f>
+        <f t="shared" ref="AD7:AD11" si="19">MID($A7,AD$1,AE$1-AD$1)</f>
         <v/>
       </c>
       <c r="AE7" s="4" t="str">
-        <f t="shared" ref="AE7:AE11" si="19">MID($A7,AE$1,AF$1-AE$1)</f>
+        <f t="shared" ref="AE7:AE11" si="20">MID($A7,AE$1,AF$1-AE$1)</f>
         <v/>
       </c>
       <c r="AF7" t="str">
-        <f t="shared" ref="AF7:AF11" si="20">MID($A7,AF$1,AG$1-AF$1)</f>
+        <f t="shared" ref="AF7:AF11" si="21">MID($A7,AF$1,AG$1-AF$1)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="B8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D8" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F8" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M8" s="20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N8" s="20" t="str">
-        <f t="shared" ref="N8:AC8" si="21">MID($A8,N$1,O$1-N$1)</f>
-        <v/>
-      </c>
-      <c r="O8" s="20" t="str">
+      <c r="M8" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="N8" s="18" t="str">
+        <f t="shared" ref="N8:AC8" si="22">MID($A8,N$1,O$1-N$1)</f>
+        <v/>
+      </c>
+      <c r="O8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="S8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="T8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="U8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="V8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="X8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Y8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AA8" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AB8" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AC8" s="4" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="AE8" s="4" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AF8" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="R8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="S8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="T8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="U8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="V8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="W8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="X8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Y8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Z8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AA8" s="20" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AB8" s="6" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AC8" s="4" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="AE8" s="4" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="AF8" t="str">
-        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="B9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D9" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F9" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M9" s="20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N9" s="20" t="str">
-        <f t="shared" ref="N9:AC9" si="22">MID($A9,N$1,O$1-N$1)</f>
-        <v/>
-      </c>
-      <c r="O9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="R9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="S9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="T9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="U9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="V9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="W9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="X9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Y9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Z9" s="20" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="AA9" s="20" t="str">
-        <f t="shared" si="22"/>
+      <c r="M9" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="N9" s="18" t="str">
+        <f t="shared" ref="N9:AC9" si="23">MID($A9,N$1,O$1-N$1)</f>
+        <v/>
+      </c>
+      <c r="O9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="R9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="S9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="T9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="U9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="V9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="X9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Y9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Z9" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="AA9" s="18" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB9" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AC9" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AD9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE9" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AF9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="B10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M10" s="20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N10" s="20" t="str">
-        <f t="shared" ref="N10:AC10" si="23">MID($A10,N$1,O$1-N$1)</f>
-        <v/>
-      </c>
-      <c r="O10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="P10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Q10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="R10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="S10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="T10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="U10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="V10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="W10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="X10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Y10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Z10" s="20" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="AA10" s="20" t="str">
-        <f t="shared" si="23"/>
+      <c r="M10" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="N10" s="18" t="str">
+        <f t="shared" ref="N10:AC10" si="24">MID($A10,N$1,O$1-N$1)</f>
+        <v/>
+      </c>
+      <c r="O10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="R10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="S10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="U10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="V10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="X10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Y10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Z10" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AA10" s="18" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB10" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AC10" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD10" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE10" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AF10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="B11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="D11" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F11" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M11" s="20" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N11" s="20" t="str">
-        <f t="shared" ref="N11:AC11" si="24">MID($A11,N$1,O$1-N$1)</f>
-        <v/>
-      </c>
-      <c r="O11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="P11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Q11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="R11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="S11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="T11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="U11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="V11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="W11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="X11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Y11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Z11" s="20" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="AA11" s="20" t="str">
-        <f t="shared" si="24"/>
+      <c r="M11" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="N11" s="18" t="str">
+        <f t="shared" ref="N11:AC11" si="25">MID($A11,N$1,O$1-N$1)</f>
+        <v/>
+      </c>
+      <c r="O11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="R11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="S11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="X11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Y11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Z11" s="18" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="AA11" s="18" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB11" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC11" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AD11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE11" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AF11" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -4071,12 +4907,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4094,47 +4930,47 @@
       <c r="E1">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
+      <c r="F1">
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>53</v>
-      </c>
-      <c r="H1">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>
       </c>
       <c r="J1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M1">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N1">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="O1">
+        <v>16</v>
       </c>
       <c r="P1">
-        <v>81</v>
-      </c>
-      <c r="Q1">
-        <v>28</v>
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
       </c>
       <c r="R1">
-        <v>28</v>
-      </c>
-      <c r="S1">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -4152,10 +4988,10 @@
         <v>3</v>
       </c>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="Z1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:26">
@@ -4177,15 +5013,15 @@
       </c>
       <c r="F2" t="str">
         <f t="shared" si="0"/>
-        <v>01011100</v>
+        <v>00000001</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>01010011</v>
+        <v>01100100</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" si="0"/>
-        <v>01100101</v>
+        <v>11111011</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" si="0"/>
@@ -4193,43 +5029,43 @@
       </c>
       <c r="J2" t="str">
         <f t="shared" si="0"/>
-        <v>10000110</v>
+        <v>10000101</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" si="0"/>
-        <v>11010010</v>
+        <v>00011011</v>
       </c>
       <c r="L2" t="str">
         <f t="shared" si="0"/>
-        <v>00101111</v>
+        <v>11011100</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" si="0"/>
-        <v>10011001</v>
+        <v>01011000</v>
       </c>
       <c r="N2" t="str">
         <f t="shared" si="0"/>
-        <v>01000000</v>
+        <v>01000111</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" si="0"/>
-        <v>10101001</v>
+        <v>00010110</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>10000001</v>
+        <v>01110010</v>
       </c>
       <c r="Q2" t="str">
         <f t="shared" si="0"/>
-        <v>00101000</v>
+        <v>10110110</v>
       </c>
       <c r="R2" t="str">
         <f t="shared" si="0"/>
-        <v>00101000</v>
+        <v>00010001</v>
       </c>
       <c r="S2" t="str">
         <f t="shared" si="0"/>
-        <v>00001000</v>
+        <v>11101111</v>
       </c>
       <c r="T2" t="str">
         <f t="shared" si="0"/>
@@ -4253,11 +5089,11 @@
       </c>
       <c r="Y2" t="str">
         <f t="shared" si="0"/>
+        <v>11110011</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" si="0"/>
         <v>10101111</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>10101011</v>
       </c>
     </row>
     <row r="3" spans="2:26">
@@ -4279,92 +5115,92 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100</v>
+        <v>0001000000000010000000010000000000000001</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011</v>
+        <v>000100000000001000000001000000000000000101100100</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101</v>
+        <v>00010000000000100000000100000000000000010110010011111011</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101100001101101001000101111</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101100001010001101111011100</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110110100100010111110011001</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101000110111101110001011000</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101100001101101001000101111100110010100000010101001</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101100001010001101111011100010110000100011100010110</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110110100100010111110011001010000001010100110000001</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101000110111101110001011000010001110001011001110010</v>
       </c>
       <c r="Q3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000101010011000000100101000</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111000101100111001010110110</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101100001101101001000101111100110010100000010101001100000010010100000101000</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101100001010001101111011100010110000100011100010110011100101011011000010001</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110110100100010111110011001010000001010100110000001001010000010100000001000</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101000110111101110001011000010001110001011001110010101101100001000111101111</v>
       </c>
       <c r="T3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000101010011000000100101000001010000000100000000000</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111000101100111001010110110000100011110111100000000</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101100001101101001000101111100110010100000010101001100000010010100000101000000010000000000000000000</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101100001010001101111011100010110000100011100010110011100101011011000010001111011110000000000000000</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110110100100010111110011001010000001010100110000001001010000010100000001000000000000000000000000000</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101000110111101110001011000010001110001011001110010101101100001000111101111000000000000000000000000</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000101010011000000100101000001010000000100000000000000000000000000000010000</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111000101100111001010110110000100011110111100000000000000000000000000010000</v>
       </c>
       <c r="X3" t="str">
         <f t="shared" si="1"/>
-        <v>0001000000000010000000010000000001011100010100110110010110001101100001101101001000101111100110010100000010101001100000010010100000101000000010000000000000000000000000000001000000000011</v>
+        <v>0001000000000010000000010000000000000001011001001111101110001101100001010001101111011100010110000100011100010110011100101011011000010001111011110000000000000000000000000001000000000011</v>
       </c>
       <c r="Y3" t="str">
         <f t="shared" si="1"/>
-        <v>000100000000001000000001000000000101110001010011011001011000110110000110110100100010111110011001010000001010100110000001001010000010100000001000000000000000000000000000000100000000001110101111</v>
+        <v>000100000000001000000001000000000000000101100100111110111000110110000101000110111101110001011000010001110001011001110010101101100001000111101111000000000000000000000000000100000000001111110011</v>
       </c>
       <c r="Z3" t="str">
         <f t="shared" si="1"/>
-        <v>00010000000000100000000100000000010111000101001101100101100011011000011011010010001011111001100101000000101010011000000100101000001010000000100000000000000000000000000000010000000000111010111110101011</v>
+        <v>00010000000000100000000100000000000000010110010011111011100011011000010100011011110111000101100001000111000101100111001010110110000100011110111100000000000000000000000000010000000000111111001110101111</v>
       </c>
     </row>
     <row r="4" spans="2:26">
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
